--- a/content/drafts/entitats/Codis_Organitzacio_Departaments.xlsx
+++ b/content/drafts/entitats/Codis_Organitzacio_Departaments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAA\CTTI\02.Projecte_DadesRef\_____c6\01.CATaleg\08.Proposta_noves_ER_Desembre19\____NovesERs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAA\CTTI\02.Projecte_DadesRef\_____c6\01.CATaleg\07.Proposta_noves_ER\06.OIAD_Paquet_03\01.Departaments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CB2F02-479C-4F7A-8BB5-73ADB17CBDAB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A826AD0-A5C4-4E1C-9BA4-21D44898CFAF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19656" yWindow="-732" windowWidth="14136" windowHeight="9996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Departaments" sheetId="1" r:id="rId1"/>
@@ -63,9 +63,6 @@
     <t>05</t>
   </si>
   <si>
-    <t>Codis_Organitzacio_Departaments</t>
-  </si>
-  <si>
     <t>Departament de la Presidència</t>
   </si>
   <si>
@@ -121,6 +118,9 @@
   </si>
   <si>
     <t>13</t>
+  </si>
+  <si>
+    <t>Departaments</t>
   </si>
 </sst>
 </file>
@@ -612,22 +612,22 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.44140625" style="2"/>
+    <col min="3" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -636,112 +636,112 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B12" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B13" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B14" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B15" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B16" s="6" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
